--- a/biology/Botanique/Gomphocarpus_kamerunensis/Gomphocarpus_kamerunensis.xlsx
+++ b/biology/Botanique/Gomphocarpus_kamerunensis/Gomphocarpus_kamerunensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gomphocarpus kamerunensis (ou Asclepias kamerunensis) est une espèce de plantes à fleurs de la famille des Asclepiadaceae selon la classification de Cronquist, et des Apocynaceae selon la classification phylogénétique.
 </t>
@@ -511,9 +523,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Répandue au sud de l'Afrique[2], au Cameroun, au Niger et au Ghana. Elle est surtout retrouvée parmi les roches dans la savane à des altitudes entre 800 - 1 000 mètres aux mois d’avril, de mai et de juin[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Répandue au sud de l'Afrique, au Cameroun, au Niger et au Ghana. Elle est surtout retrouvée parmi les roches dans la savane à des altitudes entre 800 - 1 000 mètres aux mois d’avril, de mai et de juin. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les 8 sites où cette plante a été retrouvée, seuls 2-3 arbres sont encore présents. Ces endroits sont affectés par les activités agricoles (au moins un site se trouvait près d'une ferme) et par le pâturage du bétail[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les 8 sites où cette plante a été retrouvée, seuls 2-3 arbres sont encore présents. Ces endroits sont affectés par les activités agricoles (au moins un site se trouvait près d'une ferme) et par le pâturage du bétail.
 </t>
         </is>
       </c>
